--- a/Export/CubiScan_23-02-2024.xlsx
+++ b/Export/CubiScan_23-02-2024.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -702,6 +702,45 @@
         </is>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>1234567</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Unidad-UOM3</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>UN</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>12</v>
+      </c>
+      <c r="F8" t="n">
+        <v>211</v>
+      </c>
+      <c r="G8" t="n">
+        <v>12</v>
+      </c>
+      <c r="H8" t="n">
+        <v>21</v>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>23-02-2024 14:57:44</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
